--- a/biology/Neurosciences/Thalamus/Thalamus.xlsx
+++ b/biology/Neurosciences/Thalamus/Thalamus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thalamus (du grec θάλαμος, chambre à coucher) est une structure anatomique paire de substance grise cérébrale diencéphalique. Les deux thalamus sont situés de part et d'autre du IIIe ventricule dont ils constituent les parois latérales. Situé en position intermédiaire entre cortex et tronc cérébral, le thalamus a principalement une fonction de relais et d'intégration des afférences sensitives et sensorielles et des efférences motrices, ainsi que de régulation de la conscience, de la vigilance et du sommeil. 
-On doit la dénomination du thalamus à Galien qui lui donna le nom de couche optique (thalamus nervorum opticorum, le mot thalamos signifiant littéralement dans ce contexte chambre nuptiale ou plus exactement couche nuptiale[note 1]), car aux yeux des premiers anatomistes qui disséquaient le cerveau en partant de sa face inférieure, les voies optiques semblaient étendues sur cette couche[1].
+On doit la dénomination du thalamus à Galien qui lui donna le nom de couche optique (thalamus nervorum opticorum, le mot thalamos signifiant littéralement dans ce contexte chambre nuptiale ou plus exactement couche nuptiale[note 1]), car aux yeux des premiers anatomistes qui disséquaient le cerveau en partant de sa face inférieure, les voies optiques semblaient étendues sur cette couche.
 </t>
         </is>
       </c>
@@ -514,11 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Morphologie
-Les deux noyaux thalamiques se présentent comme deux masses ovoïdes de substance grise, obliques en avant et en dedans selon un axe d'environ 60°, à grosse extrémité postérieure (pulvinar) et essentiellement en rapport avec :
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux noyaux thalamiques se présentent comme deux masses ovoïdes de substance grise, obliques en avant et en dedans selon un axe d'environ 60°, à grosse extrémité postérieure (pulvinar) et essentiellement en rapport avec :
 En dedans, le troisième ventricule et les ventricules latéraux ;
 Au-dessus, la tête et le corps du noyau caudé dont ils sont séparés par le sillon thalamo-strié ;
-En bas, la région sous-thalamique incluant la zona incerta, le noyau sous-thalamique et la substantia nigra (plus précisément, en avant : le champ de Forel H1 ou champ périzonal[note 2],[2], où se situe le faisceau thalamique, et, en arrière : le tegmentum mésencéphalique avec le neorubrum) ;
+En bas, la région sous-thalamique incluant la zona incerta, le noyau sous-thalamique et la substantia nigra (plus précisément, en avant : le champ de Forel H1 ou champ périzonal[note 2] où se situe le faisceau thalamique, et, en arrière : le tegmentum mésencéphalique avec le neorubrum) ;
 En dehors, la capsule interne.
 La face médiale des thalamus est limitée en haut par le pédoncule antérieur de l'épiphyse, ou habenula, et, en bas, par le sillon hypothalamique (de Monro). Les deux thalamus peuvent être réunis par une commissure grise interthalamique située dans le IIIe ventricule.
 Au sein et autour des deux thalamus se rencontrent des cloisons fibreuses formées de fibres myélinisées, appelées « lames médullaires ». À l'intérieur de deux thalamus, se trouve la lame médullaire interne qui bifurque en avant et en arrière, laissant apparaître des compartiments extramédullaires (antérieur, latéral, postérieur et dorso-médian) et intramédullaires où se logeront des subdivisions nucléaires thalamiques. La région latérale des thalamus est recouverte de la lame médullaire externe laquelle est séparée de la capsule interne par le noyau réticulaire du thalamus, tandis que la région dorso-médiale est recouverte par le stratum zonale, incluant le pulvinar.
@@ -537,8 +554,43 @@
 Corps genouillés médian et latéral ;
 Noyau réticulaire.
 Les efférences issues du thalamus forment les pédoncules thalamiques antérieur, latéral, supérieur, postérieur et ventral.
-Afférences et efférences
-Noyau antérieur : des corps mamillaires, prétectum/ vers les cortex cingulaire, rétrosplénial et subiculaire ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thalamus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thalamus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Afférences et efférences</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Noyau antérieur : des corps mamillaires, prétectum/ vers les cortex cingulaire, rétrosplénial et subiculaire ;
 Noyau ventral antérieur : du pallidum, de la substance noire/ vers les cortex préfrontal et cingulaire ;
 Noyau ventral latéral : du pallidum, de la substance noire, des noyaux cérébelleux profonds/ vers les cortex prémoteur et moteur ;
 Noyau ventral postérieur : du lemniscus médian et trigéminal, faisceau néospinothalamique, faisceau trigéminothalamique, du pédoncule cérébelleux, des faisceaux vestibulothalamique et solitariothalamique/ vers le cortex sensoriel primaire S1 (BA 3/1/2) et secondaire S2, l'insula, le cortex vestibulaire ;
@@ -555,31 +607,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Thalamus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thalamus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thalamus renferme :
 Des neurones relais activateurs glutaminergiques ;
@@ -592,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Thalamus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thalamus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Neurophysiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thalamus renferme des neurones de projections et des interneurones GABAergiques lesquels exercent un effet inhibiteur postsynaptique via des récepteurs postsynaptiques ionotropes GABA-A ou métabotropes GABA-B. Le noyau réticulaire se compose également de neurones inhibiteurs GABAergiques qui reçoivent des afférences de collatérales des neurones thalamo-corticaux ainsi que des cellules pyramidales du cortex cérébral de la couche 6, et se projettent, à leur tour, sur les neurones thalamiques relais. Le post-potentiel inhibiteur qu'ils génèrent au sein des neurones thalamocorticaux peut être suivi par une bouffée de potentiels d'action (activité de rebond), parfois de manière oscillatoire par la mise en jeu de conductances calciques de bas seuil. Le noyau réticulaire est particulièrement impliqué dans la genèse des fuseaux du sommeil (spindles) lors du sommeil lent.
 Les neurones cortico-thalamiques provoquent chez leurs cibles une activation des récepteurs NMDA et surtout AMPA des neurones relais ainsi que leur inhibition di-synaptique et GABAergique par activation des interneurones locaux et des neurones réticulaires.
@@ -629,31 +685,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Thalamus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thalamus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thalamus serait impliqué :
 À l'état de veille, dans le transfert et filtrage des informations sensorielles périphériques spécifiques vers le cortex ou des signaux transitant par des boucles cortico-thalamo-corticales (système striatal et cérébelleux), et dans l'activation non spécifique du cortex cérébral (vigilance) via les projections corticopètes diffuses des noyaux intralaminaires ;
@@ -665,31 +723,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Thalamus</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Neurosciences/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thalamus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le syndrome thalamique désigne un ensemble de troubles dont la nature et l'ampleur dépendent de la localisation et de l'étendue de la lésion causale. Parmi les déficits observables, on compte :
 des troubles sensitifs et douleurs thalamiques ;
